--- a/src/main/insert personenbezogene Daten/5 Jobtitel.xlsx
+++ b/src/main/insert personenbezogene Daten/5 Jobtitel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\main\insert personenbezogene Daten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F497BD-0F3B-4238-A85C-5A838FB1170F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA80A4B7-A49E-41E6-8967-35107BD572FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34710" yWindow="2025" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34530" yWindow="2445" windowWidth="17280" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>

--- a/src/main/insert personenbezogene Daten/5 Jobtitel.xlsx
+++ b/src/main/insert personenbezogene Daten/5 Jobtitel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\main\insert personenbezogene Daten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\test\testdaten_insert_jobtitel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA80A4B7-A49E-41E6-8967-35107BD572FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48587102-3EA6-410A-BFCA-7C631C2FEEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34530" yWindow="2445" windowWidth="17280" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -367,7 +367,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
